--- a/data/CSV/SelectGame.xlsx
+++ b/data/CSV/SelectGame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\TeamProject_G1_FTeam\data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{535EAD5E-8DFE-4A7B-8448-C18BDBA0A4F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55232CAF-C724-4E4F-A93C-0877D37F2C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="5460" xr2:uid="{26DFC6EB-110E-458E-AE0A-F835ED748A40}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +75,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,8 +118,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CEFF58-CDBC-4F9A-8C98-64B3B61BB2D1}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -439,53 +468,40 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <f>1280/2</f>
-        <v>640</v>
-      </c>
-      <c r="B2">
-        <f>720/2</f>
-        <v>360</v>
-      </c>
-      <c r="C2">
-        <f>A2</f>
-        <v>640</v>
-      </c>
-      <c r="D2">
-        <f>B2</f>
-        <v>360</v>
+      <c r="A2" s="1">
+        <v>330</v>
+      </c>
+      <c r="B2" s="1">
+        <v>350</v>
+      </c>
+      <c r="C2" s="1">
+        <v>280</v>
+      </c>
+      <c r="D2" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>400</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2">
+        <v>920</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B2</f>
         <v>350</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <f>C3</f>
-        <v>100</v>
+      <c r="C3" s="2">
+        <f>C2</f>
+        <v>280</v>
+      </c>
+      <c r="D3" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f>1280-A3</f>
-        <v>880</v>
-      </c>
-      <c r="B4">
-        <v>350</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <f>C4</f>
-        <v>100</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
